--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.431300000000002</v>
+        <v>8.518499999999994</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.35310000000001</v>
+        <v>-22.38590000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.01549999999998</v>
+        <v>-21.92029999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.38229999999999</v>
+        <v>-21.47609999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>4.959299999999997</v>
+        <v>4.835099999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.461399999999994</v>
+        <v>5.658899999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.129799999999998</v>
+        <v>4.474</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.31460000000001</v>
+        <v>-22.23410000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.752100000000002</v>
+        <v>4.299200000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.479000000000002</v>
+        <v>6.4714</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.252700000000002</v>
+        <v>6.045399999999998</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-22.031</v>
+        <v>-21.87289999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>6.170400000000003</v>
+        <v>6.0928</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.542500000000005</v>
+        <v>6.428100000000001</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.15300000000001</v>
+        <v>-22.0493</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.064300000000002</v>
+        <v>5.935299999999995</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.47089999999999</v>
+        <v>-21.4333</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.059699999999999</v>
+        <v>9.183600000000004</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.23999999999999</v>
+        <v>-20.06859999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.54059999999999</v>
+        <v>-19.73979999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.15040000000001</v>
+        <v>-22.22710000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6927</v>
+        <v>-21.83830000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.561400000000003</v>
+        <v>5.532599999999998</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.566000000000002</v>
+        <v>5.735399999999999</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.585200000000001</v>
+        <v>5.434299999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,7 +1762,7 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>5.501700000000002</v>
+        <v>5.732800000000002</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>4.941400000000007</v>
+        <v>5.150300000000007</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.850399999999997</v>
+        <v>5.785599999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.741499999999995</v>
+        <v>6.116399999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
